--- a/manual/subsidiaries_to_search_hb34_manual.xlsx
+++ b/manual/subsidiaries_to_search_hb34_manual.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sihyu/Stigler Center Dropbox/Sih-Yu Wei/USInvestmentInNaziGermany/IdentifyingUS/comprehensive list/manual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C44C15-ECAB-E84C-9BA9-2FA951FDCFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A27D7079-7138-4D43-92F3-2A0A5AD8EDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="26620" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="234">
   <si>
     <t>German subsidiary</t>
   </si>
@@ -43,30 +43,60 @@
     <t>"Borvisk" Kunstseiden A. G.</t>
   </si>
   <si>
+    <t>„Borvisk“ Kunstseiden-Aktiengesellschaft.</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
     <t>"Debag" Betriebstoff A.G.</t>
   </si>
   <si>
+    <t>„Debag“ Deutsche Betriebsstoff-Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>"Dom" Finanz A. G. für chemische Unternehmenungen</t>
   </si>
   <si>
+    <t>„Dom“ Finanz-Aktiengesellschaft für chem. Unternehmungen.</t>
+  </si>
+  <si>
     <t>"Rustica" A.G. fuer Grunderwerb</t>
   </si>
   <si>
+    <t>„Rustica“ Aktiengesellschaft für Grunderwerh.</t>
+  </si>
+  <si>
     <t>A. S. Hinds AG</t>
   </si>
   <si>
+    <t>Hinds Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>A.G. vormals Seidel and Neumann</t>
   </si>
   <si>
+    <t>Aktiengesellschaft vorm. Seidel &amp; Naumann.</t>
+  </si>
+  <si>
     <t>Aktien-Malsfabrik Landsburg, A. G.</t>
   </si>
   <si>
+    <t>Aktien-Malzfabrik Landsberg.</t>
+  </si>
+  <si>
     <t>Aktiengesellschaft fuer Anlagewerte</t>
   </si>
   <si>
+    <t>Aktiengesellschaft für Anlagewerte.</t>
+  </si>
+  <si>
     <t>Aktiengesellschaft fuer Geschaeftshausbau (Leipzig, Germany)</t>
   </si>
   <si>
+    <t>Aktiengesellschaft für Geschäftshausbau.</t>
+  </si>
+  <si>
     <t>Allgemeine Automobil-Versicherungs-Aktiengesellschaft</t>
   </si>
   <si>
@@ -79,12 +109,21 @@
     <t>Askania Werke A. G.</t>
   </si>
   <si>
+    <t>Askaniawerke Aktiengesellschaft vorm. Centralwerk­ statt, Dessau, und Carl Bamberg, Friedenau.</t>
+  </si>
+  <si>
     <t>August Thyssen-Bank Akt.-Ges.</t>
   </si>
   <si>
+    <t>August Thyssen-Bank Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Bekleidungs-Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Bekleidungs Aktien-Gesellschaft.</t>
+  </si>
+  <si>
     <t>Belton A.G.</t>
   </si>
   <si>
@@ -97,45 +136,81 @@
     <t>Bronzefarbenwerke A.-G. vorm. Carl Schlenk</t>
   </si>
   <si>
+    <t>Bronzefarbenwerke A.-G. vorm. Carl Schlenk.</t>
+  </si>
+  <si>
     <t>Busscher &amp; Hoffman Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Büsscher &amp; Hoffmann Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>C. H. Knorr A.G.</t>
   </si>
   <si>
+    <t>C. H. Knorr Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Concordia Hotel-Akt.-Ges.</t>
   </si>
   <si>
+    <t>Concordia Hotel-Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Continentale Gummiwerke A.G. </t>
   </si>
   <si>
+    <t>Oontinental-Gummi-Werke Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Convertgarten A.G.</t>
   </si>
   <si>
+    <t>Conventgarten-Aktien-Gesellschaft.</t>
+  </si>
+  <si>
     <t xml:space="preserve">D. S. Loewe Radio A.G. of Berlin (Germany) </t>
   </si>
   <si>
     <t>Damm &amp; Ladwig Kommandit Gesellschaft und Dulv Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Dulv Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Danziger Handels- und Industriebank Akt.-Ges.</t>
   </si>
   <si>
     <t>Danziger Hypothekenbank Akt.-Ges.</t>
   </si>
   <si>
+    <t>Danziger Hypothekenbank Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Dartex Aktiengesellschaft für Kautschuk-Verarbeitung</t>
   </si>
   <si>
+    <t>Dartex Aktiengesellschaft für Kautschuk-Verarbeitung.</t>
+  </si>
+  <si>
     <t>Deustche Babcock &amp; Wilcock</t>
   </si>
   <si>
+    <t>Deutsche Babcock &amp; Wilcox-Dampfkessel-Werke, Actien-Gesellschaft.</t>
+  </si>
+  <si>
     <t>Deutsche Burroughs Rechenmaschinen AG</t>
   </si>
   <si>
+    <t>Deutsche Burroughs Rechenmaschinen Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Deutsche Gasolin AG</t>
   </si>
   <si>
+    <t>Deutsche Gasolin Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Deutsche Heraklith A.G.</t>
   </si>
   <si>
@@ -145,198 +220,366 @@
     <t>Deutsche Landerbank Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Deutsche Länderbank Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Deutsche Libbey-Owens Gesellschaft für machinelle Glasherstellung A.G.</t>
   </si>
   <si>
+    <t>Deutsche Libbey-Owens-Gesellschaft für maschinelle Glasherstellung, Aktiengesellschaft (Delog).</t>
+  </si>
+  <si>
     <t>Deutsche Ueberseeische Bank</t>
   </si>
   <si>
     <t>Deutsche Universal Film, A.G.</t>
   </si>
   <si>
+    <t>Deutsche Universal-Film Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Deutsche Vacuum Oel AG</t>
   </si>
   <si>
+    <t>Deutsche Vacuum Oel Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Deutsche-Fox Film A.G.</t>
   </si>
   <si>
+    <t>Deutsche Fox-Film Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Dreipreis Waren-Vertriebs-Aktiengesellschaft in Liqu.</t>
   </si>
   <si>
     <t>Duco AG</t>
   </si>
   <si>
+    <t>Duco Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>E. Gundlach A.G.</t>
   </si>
   <si>
+    <t>E. Gundlach Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Ebano Asphalt-Werke Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Ebano Asphalt-Werke, Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Edoel-Bergbau Aktiengesellschaft Celle Norddeutsche Mineraloel Aktiengesellschaft</t>
   </si>
   <si>
     <t>Eduard Winter Akt.-Ges. für Kraftfahrzeuge</t>
   </si>
   <si>
+    <t>Eduard Winter Aktiengesellschaft für Kraftfahrzeuge.</t>
+  </si>
+  <si>
     <t>Eisenbahn Verkehrsmittel A.-G.</t>
   </si>
   <si>
+    <t>Eisenbahn-Verkehrsmittel-Aktiengesellschaft (Eva).</t>
+  </si>
+  <si>
     <t>Elektrolux A.G.</t>
   </si>
   <si>
+    <t>Elektrolux Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Emas A.G. fuer Strassenbaubedarf</t>
   </si>
   <si>
+    <t>„Ernas“ Aktiengesellschaft für Strassenbaubedarf.</t>
+  </si>
+  <si>
     <t>Emge-Union Oesterreichische Telephonwerke A.G.</t>
   </si>
   <si>
     <t>Emil Koster Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Emil Köster A.-G., Lederfabriken.</t>
+  </si>
+  <si>
     <t>Emlichheimer Kartoffelmehlfabrik, Aktiengesellschaft,</t>
   </si>
   <si>
+    <t>Emlichheimer Kartoffelmehlfabrik, Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Enziger Union Werke AG</t>
   </si>
   <si>
+    <t>Enzinger-Union-Werke A.-G.</t>
+  </si>
+  <si>
     <t>Erdolbergbau A.G., Celle</t>
   </si>
   <si>
+    <t>„Ebag“ Erdölbergbau-Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Europäische Tanklager und Transport AG</t>
   </si>
   <si>
+    <t>Europäische Tanklager- und Transport Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Fuerstenhof Carlton Hotel, A.G.</t>
   </si>
   <si>
+    <t>Fürstenhof Carlton-Hotel Aktiengesellschaft (Esplanade-Palasthotel).</t>
+  </si>
+  <si>
     <t>Glaswerke Ruhr A.G.</t>
   </si>
   <si>
+    <t>Glaswerke Ruhr Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Godecke &amp; Co. Chemische Fabrik A.G.</t>
   </si>
   <si>
     <t>Godecke &amp; Co. Chemische Fabrik und Export A.G.</t>
   </si>
   <si>
+    <t>Goedecke &amp; Go. Chemische Fabrik und Export-Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Gustav Lohse AG</t>
   </si>
   <si>
+    <t>Gustav Lohse Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>H. &amp; P. Sauermann, A.G.</t>
   </si>
   <si>
+    <t>H. &amp; P. Sauermann Aktiengesellschaft.</t>
+  </si>
+  <si>
+    <t>Hamburg-Amerika Linie</t>
+  </si>
+  <si>
+    <t>left_only</t>
+  </si>
+  <si>
     <t>Hamburger Hof A.G.</t>
   </si>
   <si>
+    <t>Hamburger Hof Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Heinrich Koppers, Akt.-Ges.</t>
   </si>
   <si>
+    <t>Heinrich Köppers, Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Hotel Atlantic A.G.</t>
   </si>
   <si>
+    <t>Atlantic-Hotel- Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Hugo Stinnes Reederei A.G.</t>
   </si>
   <si>
+    <t>Hugo Stinnes Reederei Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>I. G. Farbenindustrie</t>
   </si>
   <si>
+    <t>I. G. Farbenindustrie Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Industrie lackwerke A.G.</t>
   </si>
   <si>
+    <t>Indusfrielackwerke Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Industrie-Export Aktiengesellschaft</t>
   </si>
   <si>
     <t>Injecta Aktiengesellschaft zur Fabrikation Chiurgischer Instruments</t>
   </si>
   <si>
+    <t>Injecfa Aktiengesellschaft zur Fabrikation chirurgischer Instrumente.</t>
+  </si>
+  <si>
     <t>J. P. Bemberg A.G.</t>
   </si>
   <si>
+    <t>J. P. Bemberg Aktien-Gesellschaft.</t>
+  </si>
+  <si>
     <t>Julius Pintsch A.-G.</t>
   </si>
   <si>
+    <t>Julius Pintsch Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Kodak Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Kodak Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Koehlmann Werke A.G.</t>
   </si>
   <si>
     <t>Kohlen Import &amp; Poseidon A.G.</t>
   </si>
   <si>
+    <t>Kohlen-Import und Poseidon Schiffahrt Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Kohlenveredlung und Schwelwerke Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Kohlenveredlung und Schwelwerke Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Kristall Glaswerk A.G.</t>
   </si>
   <si>
+    <t>Kristallglaswerk Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Kuehltransit A.-G.</t>
   </si>
   <si>
+    <t>Kühltransit-Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Lohse, Gustave A.G.</t>
   </si>
   <si>
     <t>Lorenz, C. A.G.</t>
   </si>
   <si>
+    <t>C. Lorenz Aktiengesellschaft, Telephon- und Telegraphen-Werke, Eisenbahnsignal-Bauanstalt.</t>
+  </si>
+  <si>
     <t>M. Wulfsohn &amp; Co., Aktiengesellschaft in Liqu.</t>
   </si>
   <si>
     <t>Maschinenfabrik Augsburg Nurnberg A. G. of Germany</t>
   </si>
   <si>
+    <t>Maschinenfabrik Augsburg-Nürnberg A.-G.</t>
+  </si>
+  <si>
     <t>Maschinenfabrik Banning &amp; Seybold A.G.</t>
   </si>
   <si>
     <t>Maschinenfabrik Turner AG</t>
   </si>
   <si>
+    <t>Maschinenfabrik Turner Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Maschinenfabriken Wagner-Doerries Aktiengesellschaft (formerly: Maschinenfabrik Aktiengesellschaft vorm. Wagner &amp; Co. )</t>
   </si>
   <si>
+    <t>Maschinenfabrik Aktiengesellschaft vorm. Wagner &amp; Cc. //</t>
+  </si>
+  <si>
+    <t>Metallgesellschaft A.G.</t>
+  </si>
+  <si>
     <t>Metro-Goldwyn-Mayer Film AG</t>
   </si>
   <si>
+    <t>Metro-Goldwyn-Mayer Film Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Midgard Deutsche Seeverkehrs A.G.</t>
   </si>
   <si>
+    <t>„Midgard“ Deutsche See Verkehrs-Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Minimax A. G.</t>
   </si>
   <si>
+    <t>Minimax Aktien-Gesellschaft.</t>
+  </si>
+  <si>
     <t>Muelheimer Bergwerks Verein A.G.</t>
   </si>
   <si>
+    <t>Mülheimer Bergwerks-Verein.</t>
+  </si>
+  <si>
     <t>Mundlos Akteingesellschaft, Magdeburg</t>
   </si>
   <si>
+    <t>Mundlos Aktien-Gesellschaft.</t>
+  </si>
+  <si>
     <t>Nassauer Hof A.G. (Hotel Nassau)</t>
   </si>
   <si>
+    <t>Hotel Nassau (Nassauer Hof) Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Neue Gross-Berliner Haus-Aktiengesellschaft</t>
   </si>
   <si>
     <t>Nica Nickelindustrie A.G.</t>
   </si>
   <si>
+    <t>Nica Nickel-Industrie Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Norddeustche Eiswerke A.G.</t>
   </si>
   <si>
+    <t>Norddeutsche Eiswerke, Actiengesellschaft.</t>
+  </si>
+  <si>
     <t>Norddeutsche Mineralöl-Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Norddeutsche Mineralöl-Aktiengesellschaft (Nordöl-A.-G.) in Liqu.</t>
+  </si>
+  <si>
     <t>Norddeutsche Oelmuehlenwerke A.G.</t>
   </si>
   <si>
+    <t>Norddeutsche Oelmühlenwerke Aktiengesellschaft.</t>
+  </si>
+  <si>
+    <t>Norddeutsche Portland Cementfabrik Misburg</t>
+  </si>
+  <si>
     <t>Oesterreische Magnesit A. G.</t>
   </si>
   <si>
     <t>Orga Akt. Ges.</t>
   </si>
   <si>
+    <t>Orga Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Ota Schlesische Schurwerke Ottmuth A.G.</t>
   </si>
   <si>
     <t>Ottensenser Eisenwerke AG</t>
   </si>
   <si>
+    <t>Ottensener Eisenwerk Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Parker A. G.</t>
   </si>
   <si>
@@ -349,30 +592,57 @@
     <t>Pressluftwerkzeug und Maschinenbau AG (Premag)</t>
   </si>
   <si>
+    <t>Preßluftwerkzeug- und Maschinenbau A.-G. „Premag“.</t>
+  </si>
+  <si>
     <t>Preussische Bergwerks- und Hutten Gesellschaft</t>
   </si>
   <si>
+    <t>Preußische Bergwerks- und Hütten-Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Robert Bosch A.G.</t>
   </si>
   <si>
+    <t>Robert Bosch A.-GL</t>
+  </si>
+  <si>
     <t>Ruhrgebiet-Gasbrennerwerk Akt.-Ges. zu Langendreer</t>
   </si>
   <si>
+    <t>Gasbrennerfabrikation Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Schriftgiesserei und Messinglinienfabrik D. Stempel Akt.</t>
   </si>
   <si>
+    <t>Schriftgießerei D. Stempel, Aktien-Gesellschaft.</t>
+  </si>
+  <si>
     <t>Schulke &amp; Mayr A.G.</t>
   </si>
   <si>
+    <t>Schülke &amp; Mayr Aktien-Gesellschaft.</t>
+  </si>
+  <si>
     <t>Siemens &amp; Halske, A.G.</t>
   </si>
   <si>
+    <t>Siemens &amp; Halske Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Siemens -Schuckertwerke A. G.</t>
   </si>
   <si>
+    <t>Siemens-Schuckertwerke Aktiengesellschaft</t>
+  </si>
+  <si>
     <t>Singer Nahmaschinen Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Singer Nähmaschinen Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Sparo Aktiengesellschaft, Altona-Bahrenfeld. (In Konkurs.)</t>
   </si>
   <si>
@@ -382,322 +652,76 @@
     <t>Standard Zahnfabrik A.G.</t>
   </si>
   <si>
+    <t>Standard Zahnfabrik, Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Suedwest A.G.</t>
   </si>
   <si>
+    <t>Th. Goldschmidt of Essen, Germany</t>
+  </si>
+  <si>
     <t>Tobis Tonbild-Syndikat Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Tobis Tonbild-Syndikat Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Torpedo-Werke A.G.</t>
   </si>
   <si>
+    <t>Torpedo-Werke Fahrräder und Schreibmaschinen A.-Gr.</t>
+  </si>
+  <si>
     <t>Vaterland Oel Aktiengesellschaft</t>
   </si>
   <si>
     <t>Vereinigte Aluminiumwerke A. G.</t>
   </si>
   <si>
+    <t>Vereinigte Aluminium-Werke Aktiengesellschaft zu Lautawerk.</t>
+  </si>
+  <si>
     <t>Vereinigte Bayerische Telephonwerke AG</t>
   </si>
   <si>
+    <t>Vereinigte Bayerische Telephonwerke Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Vereinigte Berliner Kohlenhandel A.G.</t>
   </si>
   <si>
+    <t>Vereinigte Berliner Kohlenhändler-Akt.-Ges.</t>
+  </si>
+  <si>
     <t>Vereinigte Glanzstoff A.G.</t>
   </si>
   <si>
+    <t>Vereinigte Glanzstoff-Fabriken A.-G. zu Elberfeld. //</t>
+  </si>
+  <si>
     <t>Verkehrs &amp; Handels Aktiengesellschaft</t>
   </si>
   <si>
+    <t>Verkehrs- und Handels-Aktiengesellschaft.</t>
+  </si>
+  <si>
     <t>Warsteiner und Herzoglich Schleswig-Holsteinische Eisenwerke Aktiengesellschaft</t>
   </si>
   <si>
-    <t>„Borvisk“ Kunstseiden-Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>„Debag“ Deutsche Betriebsstoff-Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>„Dom“ Finanz-Aktiengesellschaft für chem. Unternehmungen.</t>
-  </si>
-  <si>
-    <t>„Rustica“ Aktiengesellschaft für Grunderwerh.</t>
-  </si>
-  <si>
-    <t>Hinds Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Aktien-Malzfabrik Landsberg.</t>
-  </si>
-  <si>
-    <t>Aktiengesellschaft für Anlagewerte.</t>
-  </si>
-  <si>
-    <t>Aktiengesellschaft für Geschäftshausbau.</t>
-  </si>
-  <si>
-    <t>Askaniawerke Aktiengesellschaft vorm. Centralwerk­ statt, Dessau, und Carl Bamberg, Friedenau.</t>
-  </si>
-  <si>
-    <t>August Thyssen-Bank Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Bekleidungs Aktien-Gesellschaft.</t>
-  </si>
-  <si>
-    <t>Bronzefarbenwerke A.-G. vorm. Carl Schlenk.</t>
-  </si>
-  <si>
-    <t>Büsscher &amp; Hoffmann Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>C. H. Knorr Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Concordia Hotel-Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Oontinental-Gummi-Werke Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Conventgarten-Aktien-Gesellschaft.</t>
-  </si>
-  <si>
-    <t>Dulv Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Dartex Aktiengesellschaft für Kautschuk-Verarbeitung.</t>
-  </si>
-  <si>
-    <t>Deutsche Babcock &amp; Wilcox-Dampfkessel-Werke, Actien-Gesellschaft.</t>
-  </si>
-  <si>
-    <t>Deutsche Burroughs Rechenmaschinen Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Deutsche Gasolin Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Deutsche Länderbank Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Deutsche Universal-Film Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Deutsche Vacuum Oel Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Deutsche Fox-Film Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Duco Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>E. Gundlach Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Ebano Asphalt-Werke, Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Eduard Winter Aktiengesellschaft für Kraftfahrzeuge.</t>
-  </si>
-  <si>
-    <t>Eisenbahn-Verkehrsmittel-Aktiengesellschaft (Eva).</t>
-  </si>
-  <si>
-    <t>Elektrolux Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>„Ernas“ Aktiengesellschaft für Strassenbaubedarf.</t>
-  </si>
-  <si>
-    <t>Emil Köster A.-G., Lederfabriken.</t>
-  </si>
-  <si>
-    <t>Emlichheimer Kartoffelmehlfabrik, Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Enzinger-Union-Werke A.-G.</t>
-  </si>
-  <si>
-    <t>„Ebag“ Erdölbergbau-Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Europäische Tanklager- und Transport Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Fürstenhof Carlton-Hotel Aktiengesellschaft (Esplanade-Palasthotel).</t>
-  </si>
-  <si>
-    <t>Glaswerke Ruhr Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Goedecke &amp; Go. Chemische Fabrik und Export-Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Gustav Lohse Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>H. &amp; P. Sauermann Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Hamburger Hof Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Heinrich Köppers, Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Atlantic-Hotel- Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Hugo Stinnes Reederei Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>I. G. Farbenindustrie Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Indusfrielackwerke Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Injecfa Aktiengesellschaft zur Fabrikation chirurgischer Instrumente.</t>
-  </si>
-  <si>
-    <t>J. P. Bemberg Aktien-Gesellschaft.</t>
-  </si>
-  <si>
-    <t>Julius Pintsch Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Kodak Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Kohlen-Import und Poseidon Schiffahrt Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Kohlenveredlung und Schwelwerke Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Kristallglaswerk Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Kühltransit-Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>C. Lorenz Aktiengesellschaft, Telephon- und Telegraphen-Werke, Eisenbahnsignal-Bauanstalt.</t>
-  </si>
-  <si>
-    <t>Maschinenfabrik Augsburg-Nürnberg A.-G.</t>
-  </si>
-  <si>
-    <t>Maschinenfabrik Turner Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Maschinenfabrik Aktiengesellschaft vorm. Wagner &amp; Cc. //</t>
-  </si>
-  <si>
-    <t>Metro-Goldwyn-Mayer Film Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>„Midgard“ Deutsche See Verkehrs-Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Minimax Aktien-Gesellschaft.</t>
-  </si>
-  <si>
-    <t>Mülheimer Bergwerks-Verein.</t>
-  </si>
-  <si>
-    <t>Mundlos Aktien-Gesellschaft.</t>
-  </si>
-  <si>
-    <t>Hotel Nassau (Nassauer Hof) Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Nica Nickel-Industrie Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Norddeutsche Eiswerke, Actiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Norddeutsche Mineralöl-Aktiengesellschaft (Nordöl-A.-G.) in Liqu.</t>
-  </si>
-  <si>
-    <t>Norddeutsche Oelmühlenwerke Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Orga Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Ottensener Eisenwerk Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Preßluftwerkzeug- und Maschinenbau A.-G. „Premag“.</t>
-  </si>
-  <si>
-    <t>Robert Bosch A.-GL</t>
-  </si>
-  <si>
-    <t>Gasbrennerfabrikation Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Schriftgießerei D. Stempel, Aktien-Gesellschaft.</t>
-  </si>
-  <si>
-    <t>Schülke &amp; Mayr Aktien-Gesellschaft.</t>
-  </si>
-  <si>
-    <t>Siemens &amp; Halske Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Siemens-Schuckertwerke Aktiengesellschaft</t>
-  </si>
-  <si>
-    <t>Singer Nähmaschinen Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Standard Zahnfabrik, Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Tobis Tonbild-Syndikat Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Torpedo-Werke Fahrräder und Schreibmaschinen A.-Gr.</t>
-  </si>
-  <si>
-    <t>Vereinigte Aluminium-Werke Aktiengesellschaft zu Lautawerk.</t>
-  </si>
-  <si>
-    <t>Vereinigte Bayerische Telephonwerke Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Vereinigte Berliner Kohlenhändler-Akt.-Ges.</t>
-  </si>
-  <si>
-    <t>Vereinigte Glanzstoff-Fabriken A.-G. zu Elberfeld. //</t>
-  </si>
-  <si>
-    <t>Verkehrs- und Handels-Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>left_only</t>
-  </si>
-  <si>
-    <t>Preußische Bergwerks- und Hütten-Aktiengesellschaft.</t>
-  </si>
-  <si>
-    <t>Deutsche Libbey-Owens-Gesellschaft für maschinelle Glasherstellung, Aktiengesellschaft (Delog).</t>
-  </si>
-  <si>
-    <t>Aktiengesellschaft vorm. Seidel &amp; Naumann.</t>
-  </si>
-  <si>
     <t>Warsteiner und Herzoglich Schleswig-Holsteinische // Eisenwerke Aktiengesellschaft</t>
   </si>
   <si>
-    <t>Danziger Hypothekenbank Aktiengesellschaft.</t>
+    <t>Th. Goldschmidt Aktiengesellschaft</t>
+  </si>
+  <si>
+    <t>Metallgesellschaft Aktiengesellschaft.</t>
+  </si>
+  <si>
+    <t>Norddeutsche Portland-Cement-Fabrik Misburg. ///</t>
+  </si>
+  <si>
+    <t>Hamburg-Amerikanische Packetfahrt-Actien- Gesellschaft. // („Hamburg-Amerika Linie“.)</t>
   </si>
 </sst>
 </file>
@@ -715,10 +739,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -744,9 +766,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -765,7 +785,51 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -778,10 +842,25 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89A3049E-492B-7747-9CA0-37F4D40175E9}" name="Table1" displayName="Table1" ref="A1:F129" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:F129" xr:uid="{89A3049E-492B-7747-9CA0-37F4D40175E9}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{76938FA9-9E21-0040-A966-B5DA06A879D0}" name="German subsidiary"/>
+    <tableColumn id="2" xr3:uid="{D6E71953-0E6D-0540-9312-EF704440310E}" name="firmname"/>
+    <tableColumn id="3" xr3:uid="{EDD71CF4-FF6F-5A4E-9A1C-215414611006}" name="band"/>
+    <tableColumn id="4" xr3:uid="{E0BDB4A6-7CB6-0C4A-ADE5-757ADFD54193}" name="firmname_page"/>
+    <tableColumn id="5" xr3:uid="{E9617235-E839-2E43-9AF7-DB1A6F4611DC}" name="Present in HB 34"/>
+    <tableColumn id="6" xr3:uid="{BAB82ED2-D760-E846-9F7D-452753FD23FC}" name="_merge"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -819,7 +898,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -853,7 +932,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -888,10 +966,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1065,15 +1142,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="48.33203125" customWidth="1"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -1101,7 +1181,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -1113,15 +1193,15 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1133,15 +1213,15 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1153,15 +1233,15 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1173,15 +1253,15 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1193,15 +1273,15 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>223</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1213,15 +1293,15 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1233,15 +1313,15 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1253,15 +1333,15 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1273,48 +1353,48 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1326,15 +1406,15 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1346,15 +1426,15 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1366,48 +1446,48 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1419,15 +1499,15 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1439,15 +1519,15 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -1459,15 +1539,15 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1479,15 +1559,15 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -1499,15 +1579,15 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1519,26 +1599,26 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1550,26 +1630,26 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1581,15 +1661,15 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1601,15 +1681,15 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1621,15 +1701,15 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -1641,15 +1721,15 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -1661,37 +1741,37 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1703,15 +1783,15 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -1723,26 +1803,26 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1754,15 +1834,15 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1774,15 +1854,15 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1794,26 +1874,26 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -1825,15 +1905,15 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -1845,15 +1925,15 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1865,26 +1945,26 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1896,15 +1976,15 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1916,15 +1996,15 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -1936,15 +2016,15 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1956,26 +2036,26 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1987,15 +2067,15 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -2007,15 +2087,15 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -2027,15 +2107,15 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -2047,15 +2127,15 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -2067,15 +2147,15 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -2087,15 +2167,15 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -2107,26 +2187,26 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -2138,15 +2218,15 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -2158,15 +2238,15 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -2178,1144 +2258,1227 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>259</v>
+        <v>1261</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>219</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="C64">
         <v>4</v>
       </c>
       <c r="D64">
-        <v>383</v>
+        <v>259</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>1290</v>
+        <v>383</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="C66">
         <v>3</v>
       </c>
       <c r="D66">
-        <v>1370</v>
+        <v>1290</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67">
-        <v>1045</v>
+        <v>1370</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="B68" t="s">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>980</v>
+        <v>1045</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>126</v>
+      </c>
+      <c r="B69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>980</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" t="s">
-        <v>179</v>
-      </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>776</v>
+        <v>128</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>330</v>
+        <v>776</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="B72" t="s">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72">
-        <v>553</v>
+        <v>330</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73">
-        <v>777</v>
+        <v>553</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>135</v>
+      </c>
+      <c r="B74" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>777</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>79</v>
-      </c>
-      <c r="B75" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75">
-        <v>1422</v>
+        <v>137</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="B76" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>461</v>
+        <v>1422</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="B77" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C77">
         <v>4</v>
       </c>
       <c r="D77">
-        <v>831</v>
+        <v>461</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="B78" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78">
-        <v>1179</v>
+        <v>831</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79">
-        <v>950</v>
+        <v>1179</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80">
-        <v>777</v>
+        <v>950</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>147</v>
+      </c>
+      <c r="B81" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>777</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>86</v>
-      </c>
-      <c r="B82" t="s">
-        <v>188</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>370</v>
+        <v>149</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>150</v>
+      </c>
+      <c r="B83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>370</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" t="s">
-        <v>189</v>
-      </c>
-      <c r="C84">
-        <v>2</v>
-      </c>
-      <c r="D84">
-        <v>633</v>
+        <v>152</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="B85" t="s">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>450</v>
+        <v>633</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>793</v>
+        <v>450</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="B87" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>1311</v>
+        <v>427</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>219</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="B88" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>226</v>
+        <v>793</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="B89" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89">
-        <v>466</v>
+        <v>1311</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="B90" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="C90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91">
-        <v>1326</v>
+        <v>466</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>166</v>
+      </c>
+      <c r="B92" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92">
+        <v>276</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="B93" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D93">
-        <v>431</v>
+        <v>1326</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" t="s">
-        <v>198</v>
-      </c>
-      <c r="C94">
-        <v>3</v>
-      </c>
-      <c r="D94">
-        <v>456</v>
+        <v>170</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="B95" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>1151</v>
+        <v>456</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>175</v>
+      </c>
+      <c r="B97" t="s">
+        <v>176</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>400</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="B98" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>550</v>
+        <v>1151</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>179</v>
+      </c>
+      <c r="B99" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>791</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>219</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>104</v>
-      </c>
-      <c r="B100" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100">
-        <v>2</v>
-      </c>
-      <c r="D100">
-        <v>505</v>
+        <v>180</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>181</v>
+      </c>
+      <c r="B101" t="s">
+        <v>182</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>550</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="E102">
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>184</v>
+      </c>
+      <c r="B103" t="s">
+        <v>185</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>505</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>108</v>
-      </c>
-      <c r="B104" t="s">
-        <v>203</v>
-      </c>
-      <c r="C104">
-        <v>2</v>
-      </c>
-      <c r="D104">
-        <v>555</v>
+        <v>186</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105" t="s">
-        <v>221</v>
-      </c>
-      <c r="C105">
-        <v>3</v>
-      </c>
-      <c r="D105">
-        <v>681</v>
+        <v>187</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="s">
-        <v>220</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>110</v>
-      </c>
-      <c r="B106" t="s">
-        <v>204</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>489</v>
+        <v>188</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="B107" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D107">
-        <v>950</v>
+        <v>555</v>
       </c>
       <c r="E107">
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="B108" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D108">
-        <v>633</v>
+        <v>681</v>
       </c>
       <c r="E108">
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="B109" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>959</v>
+        <v>489</v>
       </c>
       <c r="E109">
         <v>1</v>
       </c>
       <c r="F109" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="B110" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D110">
-        <v>519</v>
+        <v>950</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
       <c r="F110" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>197</v>
       </c>
       <c r="B111" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D111">
-        <v>526</v>
+        <v>633</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="B112" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C112">
         <v>3</v>
       </c>
       <c r="D112">
-        <v>559</v>
+        <v>959</v>
       </c>
       <c r="E112">
         <v>1</v>
       </c>
       <c r="F112" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>201</v>
+      </c>
+      <c r="B113" t="s">
+        <v>202</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>519</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>203</v>
+      </c>
+      <c r="B114" t="s">
+        <v>204</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>526</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="B115" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D115">
-        <v>1476</v>
+        <v>559</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
       <c r="F115" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="E116">
         <v>0</v>
       </c>
       <c r="F116" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>121</v>
-      </c>
-      <c r="B117" t="s">
-        <v>212</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <v>1292</v>
+        <v>208</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="B118" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>534</v>
+        <v>1476</v>
       </c>
       <c r="E118">
         <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="B120" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D120">
-        <v>454</v>
+        <v>349</v>
       </c>
       <c r="E120">
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>219</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>1549</v>
+        <v>1292</v>
       </c>
       <c r="E121">
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="B122" t="s">
         <v>216</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D122">
-        <v>1417</v>
+        <v>534</v>
       </c>
       <c r="E122">
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>127</v>
-      </c>
-      <c r="B123" t="s">
         <v>217</v>
       </c>
-      <c r="C123">
-        <v>3</v>
-      </c>
-      <c r="D123">
-        <v>389</v>
-      </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>128</v>
+        <v>218</v>
       </c>
       <c r="B124" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124">
-        <v>334</v>
+        <v>454</v>
       </c>
       <c r="E124">
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>219</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="B125" t="s">
+        <v>221</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>1549</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>222</v>
+      </c>
+      <c r="B126" t="s">
+        <v>223</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>1417</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>224</v>
       </c>
-      <c r="C125">
-        <v>3</v>
-      </c>
-      <c r="D125">
+      <c r="B127" t="s">
+        <v>225</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>389</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>226</v>
+      </c>
+      <c r="B128" t="s">
+        <v>227</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>334</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>228</v>
+      </c>
+      <c r="B129" t="s">
+        <v>229</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
         <v>1313</v>
       </c>
-      <c r="E125">
-        <v>1</v>
-      </c>
-      <c r="F125" t="s">
-        <v>219</v>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>